--- a/team_completions.xlsx
+++ b/team_completions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunte\Documents\Projects\api-sports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunte\Documents\Projects\github-repos\asa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5177413D-E385-4C6E-8C12-CBC7E4D02E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20D6856-20FC-49F2-9344-6F413DB1ECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="13740" windowHeight="23520" xr2:uid="{4DE514D5-098E-4250-809A-53ED6767566D}"/>
+    <workbookView xWindow="34860" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{4DE514D5-098E-4250-809A-53ED6767566D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1055,8 +1055,8 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2509,7 @@
         <v>80</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,7 +3563,7 @@
         <v>43</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
